--- a/doc/2、计划/前后台功能点V1.0.xlsx
+++ b/doc/2、计划/前后台功能点V1.0.xlsx
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="\a">#REF!</definedName>
     <definedName name="\i">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">后台功能点!$B$6:$K$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">后台功能点!$B$6:$L$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">前台功能点!$C$6:$G$6</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="A">#REF!</definedName>
@@ -99,7 +99,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="R5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="239">
   <si>
     <t>悦耳产品前台功能点</t>
   </si>
@@ -973,10 +973,6 @@
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
   <si>
-    <t>频道修改</t>
-    <phoneticPr fontId="32" type="noConversion"/>
-  </si>
-  <si>
     <t>服务管理</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
@@ -994,6 +990,30 @@
   </si>
   <si>
     <t>服务删除</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段查询</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段修改</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有平台角色</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>非管理员</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>非管理员</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>非管理员</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -1232,7 +1252,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1407,8 +1427,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1724,6 +1750,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1865,7 +1917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1883,8 +1935,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1904,31 +1994,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,6 +2002,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1958,41 +2030,39 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="22" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="27" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="12" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
@@ -8842,38 +8912,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="7" t="s">
         <v>3</v>
       </c>
@@ -8888,10 +8958,10 @@
       </c>
     </row>
     <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
@@ -8900,8 +8970,8 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="7" t="s">
         <v>9</v>
       </c>
@@ -8910,8 +8980,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
@@ -8920,8 +8990,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -8930,8 +9000,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -8940,8 +9010,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
@@ -8950,8 +9020,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
@@ -8960,8 +9030,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="7" t="s">
         <v>15</v>
       </c>
@@ -8970,8 +9040,8 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="7" t="s">
         <v>16</v>
       </c>
@@ -8980,8 +9050,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="7" t="s">
         <v>17</v>
       </c>
@@ -8990,8 +9060,8 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
         <v>18</v>
@@ -9000,8 +9070,8 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="s">
         <v>19</v>
@@ -9010,8 +9080,8 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
         <v>20</v>
@@ -9020,8 +9090,8 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
         <v>21</v>
@@ -9030,8 +9100,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="8"/>
       <c r="F21" s="7" t="s">
         <v>22</v>
@@ -9040,8 +9110,8 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
         <v>23</v>
@@ -9050,8 +9120,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="s">
         <v>24</v>
@@ -9060,8 +9130,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
         <v>25</v>
@@ -9070,8 +9140,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="7" t="s">
         <v>26</v>
       </c>
@@ -9080,8 +9150,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="7" t="s">
         <v>27</v>
       </c>
@@ -9090,8 +9160,8 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="8"/>
       <c r="F27" s="7" t="s">
         <v>28</v>
@@ -9100,8 +9170,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="8"/>
       <c r="F28" s="7" t="s">
         <v>29</v>
@@ -9110,8 +9180,8 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="8"/>
       <c r="F29" s="7" t="s">
         <v>30</v>
@@ -9120,8 +9190,8 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="8"/>
       <c r="F30" s="7" t="s">
         <v>31</v>
@@ -9130,8 +9200,8 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7" t="s">
         <v>32</v>
@@ -9140,8 +9210,8 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="8"/>
       <c r="F32" s="7" t="s">
         <v>33</v>
@@ -9150,8 +9220,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="7" t="s">
         <v>34</v>
       </c>
@@ -9160,8 +9230,8 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="7" t="s">
         <v>35</v>
       </c>
@@ -9170,8 +9240,8 @@
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="7" t="s">
         <v>36</v>
       </c>
@@ -9180,10 +9250,10 @@
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="7" t="s">
         <v>38</v>
       </c>
@@ -9192,8 +9262,8 @@
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="7" t="s">
         <v>39</v>
       </c>
@@ -9202,8 +9272,8 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="7" t="s">
         <v>40</v>
       </c>
@@ -9212,8 +9282,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="8"/>
       <c r="F39" s="7" t="s">
         <v>41</v>
@@ -9224,8 +9294,8 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="8"/>
       <c r="F40" s="7" t="s">
         <v>43</v>
@@ -9236,8 +9306,8 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="7" t="s">
         <v>45</v>
       </c>
@@ -9246,8 +9316,8 @@
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7" t="s">
         <v>46</v>
@@ -9256,8 +9326,8 @@
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="7" t="s">
@@ -9266,8 +9336,8 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="7" t="s">
@@ -9276,8 +9346,8 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="7" t="s">
@@ -9286,8 +9356,8 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="7" t="s">
@@ -9296,8 +9366,8 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="7" t="s">
@@ -9306,8 +9376,8 @@
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="7" t="s">
@@ -9316,8 +9386,8 @@
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="8"/>
       <c r="F49" s="7" t="s">
         <v>51</v>
@@ -9326,8 +9396,8 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="7" t="s">
@@ -9336,8 +9406,8 @@
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="7" t="s">
@@ -9346,8 +9416,8 @@
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="7" t="s">
@@ -9356,8 +9426,8 @@
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="8"/>
       <c r="F53" s="7" t="s">
         <v>52</v>
@@ -9366,8 +9436,8 @@
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="7" t="s">
@@ -9376,8 +9446,8 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="7" t="s">
@@ -9386,8 +9456,8 @@
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="7" t="s">
@@ -9396,8 +9466,8 @@
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="7" t="s">
         <v>53</v>
       </c>
@@ -9406,8 +9476,8 @@
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="8"/>
       <c r="F58" s="7" t="s">
         <v>54</v>
@@ -9416,8 +9486,8 @@
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="8"/>
       <c r="F59" s="7" t="s">
         <v>55</v>
@@ -9426,8 +9496,8 @@
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="8"/>
       <c r="F60" s="7" t="s">
         <v>56</v>
@@ -9436,8 +9506,8 @@
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="8"/>
       <c r="F61" s="7" t="s">
         <v>57</v>
@@ -9446,8 +9516,8 @@
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="8"/>
       <c r="F62" s="7" t="s">
         <v>58</v>
@@ -9456,8 +9526,8 @@
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="8"/>
       <c r="F63" s="7" t="s">
         <v>59</v>
@@ -9466,10 +9536,10 @@
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="9"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="7" t="s">
         <v>61</v>
       </c>
@@ -9478,8 +9548,8 @@
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="7" t="s">
         <v>62</v>
       </c>
@@ -9488,8 +9558,8 @@
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="8"/>
       <c r="F66" s="7" t="s">
         <v>63</v>
@@ -9498,8 +9568,8 @@
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="7" t="s">
@@ -9508,8 +9578,8 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="7" t="s">
@@ -9518,8 +9588,8 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="7" t="s">
@@ -9528,8 +9598,8 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="7" t="s">
@@ -9538,8 +9608,8 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="7" t="s">
@@ -9548,8 +9618,8 @@
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="7" t="s">
@@ -9558,8 +9628,8 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="7" t="s">
@@ -9568,8 +9638,8 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="7" t="s">
@@ -9578,8 +9648,8 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="7" t="s">
@@ -9588,8 +9658,8 @@
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="7" t="s">
@@ -9598,8 +9668,8 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="7" t="s">
@@ -9608,8 +9678,8 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="8"/>
       <c r="F78" s="7" t="s">
         <v>74</v>
@@ -9618,8 +9688,8 @@
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="7" t="s">
@@ -9628,8 +9698,8 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="7" t="s">
@@ -9638,8 +9708,8 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="7" t="s">
@@ -9648,8 +9718,8 @@
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="7" t="s">
@@ -9658,8 +9728,8 @@
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="7" t="s">
@@ -9668,8 +9738,8 @@
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="7" t="s">
@@ -9678,8 +9748,8 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="7" t="s">
@@ -9688,8 +9758,8 @@
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="7" t="s">
@@ -9698,8 +9768,8 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="7" t="s">
@@ -9708,8 +9778,8 @@
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="7" t="s">
@@ -9718,8 +9788,8 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="7" t="s">
@@ -9728,8 +9798,8 @@
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="8"/>
       <c r="F90" s="7" t="s">
         <v>75</v>
@@ -9738,8 +9808,8 @@
       <c r="H90" s="8"/>
     </row>
     <row r="91" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="7" t="s">
@@ -9748,8 +9818,8 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="7" t="s">
@@ -9758,8 +9828,8 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="7" t="s">
@@ -9768,8 +9838,8 @@
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="7" t="s">
@@ -9778,8 +9848,8 @@
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="7" t="s">
@@ -9788,8 +9858,8 @@
       <c r="H95" s="7"/>
     </row>
     <row r="96" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="7" t="s">
@@ -9798,8 +9868,8 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="7" t="s">
@@ -9808,8 +9878,8 @@
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="7" t="s">
@@ -9818,8 +9888,8 @@
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="7" t="s">
@@ -9828,8 +9898,8 @@
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="7" t="s">
@@ -9838,8 +9908,8 @@
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="7" t="s">
@@ -9848,8 +9918,8 @@
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="8"/>
       <c r="F102" s="7" t="s">
         <v>76</v>
@@ -9858,10 +9928,10 @@
       <c r="H102" s="8"/>
     </row>
     <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="9"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="7" t="s">
         <v>78</v>
       </c>
@@ -9870,8 +9940,8 @@
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="7" t="s">
         <v>79</v>
       </c>
@@ -9880,8 +9950,8 @@
       <c r="H104" s="8"/>
     </row>
     <row r="105" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="7" t="s">
         <v>80</v>
       </c>
@@ -9890,8 +9960,8 @@
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="7" t="s">
         <v>81</v>
       </c>
@@ -9900,8 +9970,8 @@
       <c r="H106" s="8"/>
     </row>
     <row r="107" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="7" t="s">
         <v>82</v>
       </c>
@@ -9910,8 +9980,8 @@
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="7" t="s">
         <v>83</v>
       </c>
@@ -9920,8 +9990,8 @@
       <c r="H108" s="8"/>
     </row>
     <row r="109" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="7" t="s">
         <v>84</v>
       </c>
@@ -9930,8 +10000,8 @@
       <c r="H109" s="8"/>
     </row>
     <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="7" t="s">
         <v>85</v>
       </c>
@@ -9940,8 +10010,8 @@
       <c r="H110" s="8"/>
     </row>
     <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="7" t="s">
         <v>86</v>
       </c>
@@ -9950,8 +10020,8 @@
       <c r="H111" s="8"/>
     </row>
     <row r="112" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="8"/>
       <c r="F112" s="7" t="s">
         <v>87</v>
@@ -9960,8 +10030,8 @@
       <c r="H112" s="8"/>
     </row>
     <row r="113" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="8"/>
       <c r="F113" s="7" t="s">
         <v>88</v>
@@ -9970,8 +10040,8 @@
       <c r="H113" s="8"/>
     </row>
     <row r="114" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="8"/>
       <c r="F114" s="7" t="s">
         <v>89</v>
@@ -9980,8 +10050,8 @@
       <c r="H114" s="8"/>
     </row>
     <row r="115" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="7" t="s">
         <v>90</v>
       </c>
@@ -9990,8 +10060,8 @@
       <c r="H115" s="8"/>
     </row>
     <row r="116" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="8"/>
       <c r="F116" s="7" t="s">
         <v>91</v>
@@ -10000,8 +10070,8 @@
       <c r="H116" s="8"/>
     </row>
     <row r="117" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="8"/>
       <c r="F117" s="7" t="s">
         <v>92</v>
@@ -10010,8 +10080,8 @@
       <c r="H117" s="8"/>
     </row>
     <row r="118" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="8"/>
       <c r="F118" s="7" t="s">
         <v>93</v>
@@ -10020,8 +10090,8 @@
       <c r="H118" s="8"/>
     </row>
     <row r="119" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="8"/>
       <c r="F119" s="7" t="s">
         <v>94</v>
@@ -10030,8 +10100,8 @@
       <c r="H119" s="8"/>
     </row>
     <row r="120" spans="3:8" ht="20.100000000000001" customHeight="1">
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="8"/>
       <c r="F120" s="7" t="s">
         <v>72</v>
@@ -10042,99 +10112,6 @@
   </sheetData>
   <autoFilter ref="C6:G6"/>
   <mergeCells count="117">
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="C115:D115"/>
@@ -10159,6 +10136,99 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -10167,10 +10237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R100"/>
+  <dimension ref="B1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:L100"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T96" sqref="T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -10180,17 +10250,17 @@
     <col min="4" max="4" width="7.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="7" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="2:19">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -10198,11 +10268,12 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="2:18">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="2:19">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -10213,2255 +10284,2379 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:18" ht="13.5">
-      <c r="B3" s="27" t="s">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="2:19" ht="13.5">
+      <c r="B3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="2:18" ht="14.25">
-      <c r="B4" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="2:19" ht="14.25">
+      <c r="B4" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-    </row>
-    <row r="5" spans="2:18" ht="13.5">
-      <c r="B5" s="34" t="s">
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+    </row>
+    <row r="5" spans="2:19" ht="13.5">
+      <c r="B5" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="34"/>
+      <c r="P5" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="14.25">
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="2:19" ht="14.25">
+      <c r="B6" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="L6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="M6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="M6" s="21">
+      <c r="N6" s="43">
         <v>1</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="43"/>
+      <c r="P6" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="4">
+      <c r="Q6" s="43"/>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="2:18" ht="13.5">
-      <c r="B7" s="41" t="s">
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="2:19" ht="13.5">
+      <c r="B7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="37">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10">
         <v>12.1</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="K7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="L7" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="44">
-        <f t="shared" ref="L7:L100" si="0">IF(AND(K7="EI",J7="简单"),3,IF(AND(K7="EI",J7="普通"),4,IF(AND(K7="EI",J7="复杂"),6,IF(AND(K7="EO",J7="简单"),4,IF(AND(K7="EO",J7="普通"),5,IF(AND(K7="EO",J7="复杂"),7,IF(AND(K7="EQ",J7="简单"),3,IF(AND(K7="EQ",J7="普通"),4,IF(AND(K7="EQ",J7="复杂"),6,IF(AND(K7="ILF",J7="简单"),7,IF(AND(K7="ILF",J7="普通"),10,IF(AND(K7="ILF",J7="复杂"),15,IF(AND(K7="EIF",J7="简单"),5,IF(AND(K7="EIF",J7="普通"),7,IF(AND(K7="EIF",J7="复杂"),10,0)))))))))))))))</f>
+      <c r="M7" s="16">
+        <f t="shared" ref="M7:M71" si="0">IF(AND(L7="EI",K7="简单"),3,IF(AND(L7="EI",K7="普通"),4,IF(AND(L7="EI",K7="复杂"),6,IF(AND(L7="EO",K7="简单"),4,IF(AND(L7="EO",K7="普通"),5,IF(AND(L7="EO",K7="复杂"),7,IF(AND(L7="EQ",K7="简单"),3,IF(AND(L7="EQ",K7="普通"),4,IF(AND(L7="EQ",K7="复杂"),6,IF(AND(L7="ILF",K7="简单"),7,IF(AND(L7="ILF",K7="普通"),10,IF(AND(L7="ILF",K7="复杂"),15,IF(AND(L7="EIF",K7="简单"),5,IF(AND(L7="EIF",K7="普通"),7,IF(AND(L7="EIF",K7="复杂"),10,0)))))))))))))))</f>
         <v>7</v>
       </c>
-      <c r="M7" s="21">
+      <c r="N7" s="43">
         <v>2</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="43"/>
+      <c r="P7" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="4">
+      <c r="Q7" s="43"/>
+      <c r="R7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="2:18" ht="13.5">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="38" t="s">
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="2:19" ht="13.5">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="42" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="L8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="44">
+      <c r="M8" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M8" s="21">
+      <c r="N8" s="43">
         <v>3</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="43"/>
+      <c r="P8" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="4">
+      <c r="Q8" s="43"/>
+      <c r="R8" s="4">
         <v>3</v>
       </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="2:18" ht="13.5">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="38" t="s">
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="2:19" ht="13.5">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="42" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="L9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L9" s="44">
+      <c r="M9" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M9" s="21">
+      <c r="N9" s="43">
         <v>4</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="43"/>
+      <c r="P9" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="4">
+      <c r="Q9" s="43"/>
+      <c r="R9" s="4">
         <v>2</v>
       </c>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="2:18" ht="13.5">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="38" t="s">
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="2:19" ht="13.5">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="42" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="L10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="44">
+      <c r="M10" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M10" s="21">
+      <c r="N10" s="43">
         <v>5</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="43"/>
+      <c r="P10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="4">
+      <c r="Q10" s="43"/>
+      <c r="R10" s="4">
         <v>3</v>
       </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="2:18" ht="13.5">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="38" t="s">
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="2:19" ht="13.5">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="42" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="L11" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="44">
+      <c r="M11" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M11" s="21">
+      <c r="N11" s="43">
         <v>6</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="43"/>
+      <c r="P11" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="4">
+      <c r="Q11" s="43"/>
+      <c r="R11" s="4">
         <v>3</v>
       </c>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="2:18" ht="13.5">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38" t="s">
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="2:19" ht="13.5">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="42" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="L12" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L12" s="44">
+      <c r="M12" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M12" s="21">
+      <c r="N12" s="43">
         <v>7</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="43"/>
+      <c r="P12" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="4">
+      <c r="Q12" s="43"/>
+      <c r="R12" s="4">
         <v>5</v>
       </c>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="2:18" ht="13.5">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38" t="s">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="2:19" ht="13.5">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="42" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="L13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="44">
+      <c r="M13" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M13" s="21">
+      <c r="N13" s="43">
         <v>8</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="43"/>
+      <c r="P13" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="4">
+      <c r="Q13" s="43"/>
+      <c r="R13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="2:18" ht="13.5">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38" t="s">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="2:19" ht="13.5">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="42" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="L14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="44">
+      <c r="M14" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M14" s="21">
+      <c r="N14" s="43">
         <v>9</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="43"/>
+      <c r="P14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="4">
+      <c r="Q14" s="43"/>
+      <c r="R14" s="4">
         <v>4</v>
       </c>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="2:18" ht="13.5">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38" t="s">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="2:19" ht="13.5">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="42" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="L15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="44">
+      <c r="M15" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M15" s="21">
+      <c r="N15" s="43">
         <v>10</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="43"/>
+      <c r="P15" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="4">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="4">
         <v>1</v>
       </c>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="2:18" ht="13.5">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38" t="s">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="2:19" ht="13.5">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="42" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="L16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="44">
+      <c r="M16" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M16" s="21">
+      <c r="N16" s="43">
         <v>11</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="43"/>
+      <c r="P16" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="4">
+      <c r="Q16" s="43"/>
+      <c r="R16" s="4">
         <v>2</v>
       </c>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="2:18" ht="13.5">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="38" t="s">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="2:19" ht="13.5">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="42" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="L17" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="44">
+      <c r="M17" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M17" s="21">
+      <c r="N17" s="43">
         <v>12</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="43"/>
+      <c r="P17" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="4">
+      <c r="Q17" s="43"/>
+      <c r="R17" s="4">
         <v>5</v>
       </c>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="2:18" ht="13.5">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38" t="s">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="2:19" ht="13.5">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="42" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="L18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L18" s="44">
+      <c r="M18" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M18" s="21">
+      <c r="N18" s="43">
         <v>13</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="43"/>
+      <c r="P18" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="4">
+      <c r="Q18" s="43"/>
+      <c r="R18" s="4">
         <v>3</v>
       </c>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="2:18" ht="13.5">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38" t="s">
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="2:19" ht="13.5">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="42" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="L19" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="44">
+      <c r="M19" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M19" s="21">
+      <c r="N19" s="43">
         <v>14</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="43"/>
+      <c r="P19" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="4">
+      <c r="Q19" s="43"/>
+      <c r="R19" s="4">
         <v>4</v>
       </c>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="2:18" ht="13.5">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38" t="s">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="2:19" ht="13.5">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="42" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="43" t="s">
+      <c r="L20" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="44">
+      <c r="M20" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="N20" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="4">
-        <f>SUM(Q6:Q19)</f>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="4">
+        <f>SUM(R6:R19)</f>
         <v>35</v>
       </c>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="2:18" ht="13.5">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38" t="s">
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="2:19" ht="13.5">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="42" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="L21" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L21" s="44">
+      <c r="M21" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="N21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="2:18" ht="13.5">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38" t="s">
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="2:19" ht="13.5">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="42" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="L22" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="44">
+      <c r="M22" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="2:18" ht="13.5">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38" t="s">
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="2:19" ht="13.5">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="42" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="L23" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L23" s="44">
+      <c r="M23" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="N23" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20" t="e">
-        <f>ROUND(#REF!*(0.65+0.01*Q20),0)</f>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34" t="e">
+        <f>ROUND(#REF!*(0.65+0.01*R20),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="34"/>
       <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="2:18" ht="13.5">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="38" t="s">
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="2:19" ht="13.5">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="42" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="L24" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L24" s="44">
+      <c r="M24" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="13.5">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38" t="s">
+    <row r="25" spans="2:19" ht="13.5">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="42" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="L25" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="44">
+      <c r="M25" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="13.5">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38" t="s">
+    <row r="26" spans="2:19" ht="13.5">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="42" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="L26" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L26" s="44">
+      <c r="M26" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="13.5">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38" t="s">
+    <row r="27" spans="2:19" ht="13.5">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="42" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="L27" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="44">
+      <c r="M27" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="13.5">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="38" t="s">
+    <row r="28" spans="2:19" ht="13.5">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="38" t="s">
+      <c r="E28" s="12"/>
+      <c r="F28" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="37">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10">
         <v>12.13</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="K28" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="L28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="44">
+      <c r="M28" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="13.5">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38" t="s">
+    <row r="29" spans="2:19" ht="13.5">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="42" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K29" s="43" t="s">
+      <c r="L29" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="44">
+      <c r="M29" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="13.5">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38" t="s">
+    <row r="30" spans="2:19" ht="13.5">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44"/>
-    </row>
-    <row r="31" spans="2:18" ht="13.5">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="2:19" ht="13.5">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="42" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="L31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L31" s="44">
+      <c r="M31" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="13.5">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38" t="s">
+    <row r="32" spans="2:19" ht="13.5">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="42" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K32" s="43" t="s">
+      <c r="L32" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="44">
+      <c r="M32" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="13.5">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38" t="s">
+    <row r="33" spans="2:13" ht="13.5">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="42" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K33" s="43" t="s">
+      <c r="L33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="44">
+      <c r="M33" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="13.5">
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38" t="s">
+    <row r="34" spans="2:13" ht="13.5">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="42" t="s">
+      <c r="I34" s="11"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K34" s="43" t="s">
+      <c r="L34" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L34" s="44">
+      <c r="M34" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="13.5">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38" t="s">
+    <row r="35" spans="2:13" ht="13.5">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="42" t="s">
+      <c r="I35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="L35" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L35" s="44">
+      <c r="M35" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="13.5">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38" t="s">
+    <row r="36" spans="2:13" ht="13.5">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="42" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="L36" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L36" s="44">
+      <c r="M36" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="13.5">
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38" t="s">
+    <row r="37" spans="2:13" ht="13.5">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="42" t="s">
+      <c r="H37" s="47"/>
+      <c r="I37" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="K37" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="L37" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L37" s="44">
+      <c r="M37" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="13.5">
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="s">
+    <row r="38" spans="2:13" ht="13.5">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="44"/>
-    </row>
-    <row r="39" spans="2:12" ht="13.5">
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38" t="s">
+      <c r="I38" s="51"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:13" ht="13.5">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="44"/>
-    </row>
-    <row r="40" spans="2:12" ht="13.5">
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38" t="s">
+      <c r="I39" s="52"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="2:13" ht="13.5">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="42" t="s">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="L40" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L40" s="44">
+      <c r="M40" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="13.5">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="38" t="s">
+    <row r="41" spans="2:13" ht="13.5">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="37">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="10">
         <v>12.21</v>
       </c>
-      <c r="J41" s="42" t="s">
+      <c r="K41" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K41" s="43" t="s">
+      <c r="L41" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L41" s="44">
+      <c r="M41" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="13.5">
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38" t="s">
+    <row r="42" spans="2:13" ht="13.5">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="42" t="s">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="L42" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L42" s="44">
+      <c r="M42" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="13.5">
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38" t="s">
+    <row r="43" spans="2:13" ht="13.5">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="44"/>
-    </row>
-    <row r="44" spans="2:12" ht="13.5">
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38" t="s">
+      <c r="I43" s="11"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="44" spans="2:13" ht="13.5">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="44"/>
-    </row>
-    <row r="45" spans="2:12" ht="13.5">
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38" t="s">
+      <c r="I44" s="11"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="2:13" ht="13.5">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44"/>
-    </row>
-    <row r="46" spans="2:12" ht="13.5">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38" t="s">
+      <c r="I45" s="11"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="2:13" ht="13.5">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H46" s="38"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="42" t="s">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K46" s="43" t="s">
+      <c r="L46" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L46" s="44">
+      <c r="M46" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="13.5">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38" t="s">
+    <row r="47" spans="2:13" ht="13.5">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="42" t="s">
+      <c r="H47" s="47"/>
+      <c r="I47" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K47" s="43" t="s">
+      <c r="L47" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L47" s="44">
+      <c r="M47" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="13.5">
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38" t="s">
+    <row r="48" spans="2:13" ht="13.5">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="44"/>
-    </row>
-    <row r="49" spans="2:12" ht="13.5">
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38" t="s">
+      <c r="I48" s="52"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="16"/>
+    </row>
+    <row r="49" spans="2:13" ht="13.5">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H49" s="38"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="42" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K49" s="43" t="s">
+      <c r="L49" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L49" s="44">
+      <c r="M49" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="13.5">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="38" t="s">
+    <row r="50" spans="2:13" ht="13.5">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="37">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="10">
         <v>12.9</v>
       </c>
-      <c r="J50" s="42" t="s">
+      <c r="K50" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K50" s="43" t="s">
+      <c r="L50" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L50" s="44">
+      <c r="M50" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="13.5">
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38" t="s">
+    <row r="51" spans="2:13" ht="13.5">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H51" s="38"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="42" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K51" s="43" t="s">
+      <c r="L51" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L51" s="44">
+      <c r="M51" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="13.5">
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38" t="s">
+    <row r="52" spans="2:13" ht="13.5">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="42" t="s">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K52" s="43" t="s">
+      <c r="L52" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L52" s="44">
+      <c r="M52" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="13.5">
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38" t="s">
+    <row r="53" spans="2:13" ht="13.5">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="42" t="s">
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K53" s="43" t="s">
+      <c r="L53" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L53" s="44">
+      <c r="M53" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="13.5">
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38" t="s">
+    <row r="54" spans="2:13" ht="13.5">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="44"/>
-    </row>
-    <row r="55" spans="2:12" ht="13.5">
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38" t="s">
+      <c r="I54" s="11"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="16"/>
+    </row>
+    <row r="55" spans="2:13" ht="13.5">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="44"/>
-    </row>
-    <row r="56" spans="2:12" ht="13.5">
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38" t="s">
+      <c r="I55" s="11"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="16"/>
+    </row>
+    <row r="56" spans="2:13" ht="13.5">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H56" s="38"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="42" t="s">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K56" s="43" t="s">
+      <c r="L56" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L56" s="44">
+      <c r="M56" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="13.5">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="38" t="s">
+    <row r="57" spans="2:13" ht="13.5">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="38" t="s">
+      <c r="E57" s="12"/>
+      <c r="F57" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="38"/>
-      <c r="I57" s="37">
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="10">
         <v>12.9</v>
       </c>
-      <c r="J57" s="42" t="s">
+      <c r="K57" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K57" s="43" t="s">
+      <c r="L57" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L57" s="44">
+      <c r="M57" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="13.5">
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38" t="s">
+    <row r="58" spans="2:13" ht="13.5">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="42" t="s">
+      <c r="I58" s="11"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K58" s="43" t="s">
+      <c r="L58" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L58" s="44">
+      <c r="M58" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38" t="s">
+    <row r="59" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I59" s="37"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="44"/>
-    </row>
-    <row r="60" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38" t="s">
+      <c r="I59" s="11"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="16"/>
+    </row>
+    <row r="60" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="37"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
-    </row>
-    <row r="61" spans="2:12" ht="14.25" customHeight="1">
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38" t="s">
+      <c r="I60" s="11"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="16"/>
+    </row>
+    <row r="61" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="I61" s="37"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="44"/>
-    </row>
-    <row r="62" spans="2:12" ht="13.5">
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38" t="s">
+      <c r="I61" s="11"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="16"/>
+    </row>
+    <row r="62" spans="2:13" ht="13.5">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="42" t="s">
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K62" s="43" t="s">
+      <c r="L62" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L62" s="44">
+      <c r="M62" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="13.5">
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38" t="s">
+    <row r="63" spans="2:13" ht="13.5">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="42" t="s">
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K63" s="43" t="s">
+      <c r="L63" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L63" s="44">
+      <c r="M63" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="13.5">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38" t="s">
+    <row r="64" spans="2:13" ht="13.5">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="42" t="s">
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K64" s="43" t="s">
+      <c r="L64" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="L64" s="44">
+      <c r="M64" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="13.5">
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="38" t="s">
+    <row r="65" spans="2:13" ht="13.5">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="39"/>
-      <c r="F65" s="38" t="s">
+      <c r="E65" s="12"/>
+      <c r="F65" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="38"/>
-      <c r="I65" s="37">
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="10">
         <v>12.16</v>
       </c>
-      <c r="J65" s="42" t="s">
+      <c r="K65" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K65" s="43" t="s">
+      <c r="L65" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L65" s="44">
+      <c r="M65" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="13.5">
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38" t="s">
+    <row r="66" spans="2:13" ht="13.5">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="H66" s="38"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="42" t="s">
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K66" s="43" t="s">
+      <c r="L66" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L66" s="44">
+      <c r="M66" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="13.5">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38" t="s">
+    <row r="67" spans="2:13" ht="13.5">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I67" s="37"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="44"/>
-    </row>
-    <row r="68" spans="2:12" ht="13.5">
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38" t="s">
+      <c r="I67" s="11"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="16"/>
+    </row>
+    <row r="68" spans="2:13" ht="13.5">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="I68" s="37"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="44"/>
-    </row>
-    <row r="69" spans="2:12" ht="13.5">
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38" t="s">
+      <c r="I68" s="11"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="16"/>
+    </row>
+    <row r="69" spans="2:13" ht="13.5">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="I69" s="37"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="44"/>
-    </row>
-    <row r="70" spans="2:12" ht="13.5">
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38" t="s">
+      <c r="I69" s="11"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="16"/>
+    </row>
+    <row r="70" spans="2:13" ht="13.5">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H70" s="38"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="42" t="s">
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K70" s="43" t="s">
+      <c r="L70" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L70" s="44">
+      <c r="M70" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="13.5">
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38" t="s">
+    <row r="71" spans="2:13" ht="13.5">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H71" s="38"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="42" t="s">
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K71" s="43" t="s">
+      <c r="L71" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L71" s="44">
+      <c r="M71" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="13.5">
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38" t="s">
+    <row r="72" spans="2:13" ht="13.5">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="44"/>
-    </row>
-    <row r="73" spans="2:12" ht="13.5">
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38" t="s">
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="16"/>
+    </row>
+    <row r="73" spans="2:13" ht="13.5">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I73" s="37"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="44"/>
-    </row>
-    <row r="74" spans="2:12" ht="13.5">
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38" t="s">
+      <c r="I73" s="11"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="16"/>
+    </row>
+    <row r="74" spans="2:13" ht="13.5">
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="I74" s="37"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="44"/>
-    </row>
-    <row r="75" spans="2:12" ht="13.5">
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38" t="s">
+      <c r="I74" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J74" s="10"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="16"/>
+    </row>
+    <row r="75" spans="2:13" ht="13.5">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="I75" s="37"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="44"/>
-    </row>
-    <row r="76" spans="2:12" ht="13.5">
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="38" t="s">
+      <c r="I75" s="11"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="16"/>
+    </row>
+    <row r="76" spans="2:13" ht="13.5">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="37">
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="10">
         <v>12.23</v>
       </c>
-      <c r="J76" s="42" t="s">
+      <c r="K76" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K76" s="43" t="s">
+      <c r="L76" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L76" s="44">
-        <f t="shared" ref="L76:L84" si="1">IF(AND(K76="EI",J76="简单"),3,IF(AND(K76="EI",J76="普通"),4,IF(AND(K76="EI",J76="复杂"),6,IF(AND(K76="EO",J76="简单"),4,IF(AND(K76="EO",J76="普通"),5,IF(AND(K76="EO",J76="复杂"),7,IF(AND(K76="EQ",J76="简单"),3,IF(AND(K76="EQ",J76="普通"),4,IF(AND(K76="EQ",J76="复杂"),6,IF(AND(K76="ILF",J76="简单"),7,IF(AND(K76="ILF",J76="普通"),10,IF(AND(K76="ILF",J76="复杂"),15,IF(AND(K76="EIF",J76="简单"),5,IF(AND(K76="EIF",J76="普通"),7,IF(AND(K76="EIF",J76="复杂"),10,0)))))))))))))))</f>
+      <c r="M76" s="16">
+        <f t="shared" ref="M76:M84" si="1">IF(AND(L76="EI",K76="简单"),3,IF(AND(L76="EI",K76="普通"),4,IF(AND(L76="EI",K76="复杂"),6,IF(AND(L76="EO",K76="简单"),4,IF(AND(L76="EO",K76="普通"),5,IF(AND(L76="EO",K76="复杂"),7,IF(AND(L76="EQ",K76="简单"),3,IF(AND(L76="EQ",K76="普通"),4,IF(AND(L76="EQ",K76="复杂"),6,IF(AND(L76="ILF",K76="简单"),7,IF(AND(L76="ILF",K76="普通"),10,IF(AND(L76="ILF",K76="复杂"),15,IF(AND(L76="EIF",K76="简单"),5,IF(AND(L76="EIF",K76="普通"),7,IF(AND(L76="EIF",K76="复杂"),10,0)))))))))))))))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="13.5">
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38" t="s">
+    <row r="77" spans="2:13" ht="13.5">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H77" s="38"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="42" t="s">
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K77" s="43" t="s">
+      <c r="L77" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L77" s="44">
+      <c r="M77" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="13.5">
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38" t="s">
+    <row r="78" spans="2:13" ht="13.5">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H78" s="38"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="44"/>
-    </row>
-    <row r="79" spans="2:12" ht="13.5">
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38" t="s">
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="16"/>
+    </row>
+    <row r="79" spans="2:13" ht="13.5">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="H79" s="38"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="44"/>
-    </row>
-    <row r="80" spans="2:12" ht="13.5">
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38" t="s">
+      <c r="H79" s="11"/>
+      <c r="I79" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J79" s="10"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="80" spans="2:13" ht="13.5">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H80" s="38"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="44"/>
-    </row>
-    <row r="81" spans="2:12" ht="13.5">
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38" t="s">
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="16"/>
+    </row>
+    <row r="81" spans="2:13" ht="13.5">
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H81" s="38"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="42" t="s">
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K81" s="43" t="s">
+      <c r="L81" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L81" s="44">
+      <c r="M81" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="13.5">
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38" t="s">
+    <row r="82" spans="2:13" ht="13.5">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="42" t="s">
+      <c r="H82" s="11"/>
+      <c r="I82" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J82" s="10"/>
+      <c r="K82" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K82" s="43" t="s">
+      <c r="L82" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L82" s="44">
+      <c r="M82" s="16">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="13.5">
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="38" t="s">
+    <row r="83" spans="2:13" ht="13.5">
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E83" s="39"/>
-      <c r="F83" s="38" t="s">
+      <c r="E83" s="12"/>
+      <c r="F83" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G83" s="38" t="s">
+      <c r="G83" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H83" s="38"/>
-      <c r="I83" s="37">
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="10">
         <v>12.16</v>
       </c>
-      <c r="J83" s="42" t="s">
+      <c r="K83" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K83" s="43" t="s">
+      <c r="L83" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L83" s="44">
+      <c r="M83" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="13.5">
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38" t="s">
+    <row r="84" spans="2:13" ht="13.5">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H84" s="38"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="42" t="s">
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K84" s="43" t="s">
+      <c r="L84" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L84" s="44">
+      <c r="M84" s="16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="13.5">
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38" t="s">
+    <row r="85" spans="2:13" ht="13.5">
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="I85" s="37"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="44"/>
-    </row>
-    <row r="86" spans="2:12" ht="13.5">
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38" t="s">
+      <c r="I85" s="11"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="16"/>
+    </row>
+    <row r="86" spans="2:13" ht="13.5">
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I86" s="37"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="44"/>
-    </row>
-    <row r="87" spans="2:12" ht="13.5">
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38" t="s">
+      <c r="I86" s="11"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="16"/>
+    </row>
+    <row r="87" spans="2:13" ht="13.5">
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="I87" s="37"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="44"/>
-    </row>
-    <row r="88" spans="2:12" ht="13.5">
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38" t="s">
+      <c r="I87" s="11"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="16"/>
+    </row>
+    <row r="88" spans="2:13" ht="13.5">
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="H88" s="38"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="42" t="s">
+      <c r="H88" s="11"/>
+      <c r="I88" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K88" s="43" t="s">
+      <c r="L88" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L88" s="44">
-        <f t="shared" ref="L88:L89" si="2">IF(AND(K88="EI",J88="简单"),3,IF(AND(K88="EI",J88="普通"),4,IF(AND(K88="EI",J88="复杂"),6,IF(AND(K88="EO",J88="简单"),4,IF(AND(K88="EO",J88="普通"),5,IF(AND(K88="EO",J88="复杂"),7,IF(AND(K88="EQ",J88="简单"),3,IF(AND(K88="EQ",J88="普通"),4,IF(AND(K88="EQ",J88="复杂"),6,IF(AND(K88="ILF",J88="简单"),7,IF(AND(K88="ILF",J88="普通"),10,IF(AND(K88="ILF",J88="复杂"),15,IF(AND(K88="EIF",J88="简单"),5,IF(AND(K88="EIF",J88="普通"),7,IF(AND(K88="EIF",J88="复杂"),10,0)))))))))))))))</f>
+      <c r="M88" s="16">
+        <f t="shared" ref="M88:M89" si="2">IF(AND(L88="EI",K88="简单"),3,IF(AND(L88="EI",K88="普通"),4,IF(AND(L88="EI",K88="复杂"),6,IF(AND(L88="EO",K88="简单"),4,IF(AND(L88="EO",K88="普通"),5,IF(AND(L88="EO",K88="复杂"),7,IF(AND(L88="EQ",K88="简单"),3,IF(AND(L88="EQ",K88="普通"),4,IF(AND(L88="EQ",K88="复杂"),6,IF(AND(L88="ILF",K88="简单"),7,IF(AND(L88="ILF",K88="普通"),10,IF(AND(L88="ILF",K88="复杂"),15,IF(AND(L88="EIF",K88="简单"),5,IF(AND(L88="EIF",K88="普通"),7,IF(AND(L88="EIF",K88="复杂"),10,0)))))))))))))))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="13.5">
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38" t="s">
+    <row r="89" spans="2:13" ht="13.5">
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="H89" s="38"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="42" t="s">
+      <c r="H89" s="11"/>
+      <c r="I89" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K89" s="43" t="s">
+      <c r="L89" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L89" s="44">
+      <c r="M89" s="16">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="14.25">
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="38" t="s">
+    <row r="90" spans="2:13" ht="14.25">
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38" t="s">
+      <c r="E90" s="11"/>
+      <c r="F90" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G90" s="38" t="s">
+      <c r="G90" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H90" s="38"/>
-      <c r="I90" s="37"/>
-      <c r="J90"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="10"/>
       <c r="K90"/>
       <c r="L90"/>
-    </row>
-    <row r="91" spans="2:12" ht="14.25">
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38" t="s">
+      <c r="M90"/>
+    </row>
+    <row r="91" spans="2:13" ht="14.25">
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H91" s="38"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="46"/>
-    </row>
-    <row r="92" spans="2:12" ht="14.25">
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38" t="s">
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+    </row>
+    <row r="92" spans="2:13" ht="14.25">
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="I92" s="37"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-    </row>
-    <row r="93" spans="2:12" ht="14.25">
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38" t="s">
+      <c r="I92" s="11"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+    </row>
+    <row r="93" spans="2:13" ht="14.25">
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="I93" s="37"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-    </row>
-    <row r="94" spans="2:12" ht="14.25">
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38" t="s">
+      <c r="I93" s="11"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+    </row>
+    <row r="94" spans="2:13" ht="14.25">
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="I94" s="37"/>
-      <c r="J94" s="46"/>
-      <c r="K94" s="46"/>
-      <c r="L94" s="46"/>
-    </row>
-    <row r="95" spans="2:12" ht="14.25">
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="H95" s="38"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="46"/>
-      <c r="K95" s="46"/>
-      <c r="L95" s="46"/>
-    </row>
-    <row r="96" spans="2:12" ht="14.25">
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38" t="s">
+      <c r="I94" s="11"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+    </row>
+    <row r="95" spans="2:13" ht="14.25">
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J95" s="10"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+    </row>
+    <row r="96" spans="2:13" ht="14.25">
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J96" s="10"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+    </row>
+    <row r="97" spans="2:13" ht="14.25">
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H96" s="38"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-    </row>
-    <row r="97" spans="2:12" ht="14.25">
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="38" t="s">
+      <c r="E97" s="11"/>
+      <c r="F97" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="G97" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="H97" s="38"/>
-      <c r="I97" s="37"/>
-      <c r="J97"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="10"/>
       <c r="K97"/>
       <c r="L97"/>
-    </row>
-    <row r="98" spans="2:12" ht="14.25">
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38" t="s">
+      <c r="M97"/>
+    </row>
+    <row r="98" spans="2:13" ht="14.25">
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+    </row>
+    <row r="99" spans="2:13" ht="13.5" hidden="1" customHeight="1">
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H98" s="38"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="46"/>
-    </row>
-    <row r="99" spans="2:12" ht="13.5" hidden="1" customHeight="1">
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38" t="s">
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+    </row>
+    <row r="100" spans="2:13" ht="14.25">
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H99" s="38"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="46"/>
-      <c r="K99" s="46"/>
-      <c r="L99" s="46"/>
-    </row>
-    <row r="100" spans="2:12" ht="14.25">
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="H100" s="38"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="46"/>
-      <c r="L100" s="46"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:K99"/>
-  <mergeCells count="49">
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="M4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D5:K5"/>
+  <autoFilter ref="B6:L99"/>
+  <mergeCells count="52">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K100">
       <formula1>"复杂,普通,简单"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L100">
       <formula1>"EI,EO,EQ,ILF,EIF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q6:Q19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R6:R19">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
